--- a/callendar0.1.xlsx
+++ b/callendar0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31764d6c47268fd3/Documents/Simona/table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Documents\Simona\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="8_{937190A5-3CAC-4CC7-A210-3E7EB9570EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F365C0-DF95-4061-A06F-51AE29484475}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DF969F-CF36-4085-BB0C-BDFB99F7F3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="432" windowWidth="15630" windowHeight="11244" xr2:uid="{D1937B45-24F5-44DD-ABEC-83BCF230062B}"/>
+    <workbookView xWindow="3582" yWindow="552" windowWidth="15312" windowHeight="11466" tabRatio="560" xr2:uid="{D1937B45-24F5-44DD-ABEC-83BCF230062B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>Rebecca</t>
   </si>
@@ -376,16 +376,10 @@
     <t>chap 9</t>
   </si>
   <si>
-    <t>ha 9(to sa)</t>
-  </si>
-  <si>
     <t>zoro telling san abt law</t>
   </si>
   <si>
     <t>hw 6, 8</t>
-  </si>
-  <si>
-    <t>io 8</t>
   </si>
   <si>
     <r>
@@ -412,29 +406,244 @@
     <t>Sugar (Lu)</t>
   </si>
   <si>
-    <t>hw 5, y 11(12)</t>
-  </si>
-  <si>
     <t>revol army?</t>
   </si>
   <si>
     <t>donqux fam business</t>
   </si>
   <si>
-    <t>io 11</t>
-  </si>
-  <si>
     <t>gg 203 N (12) S.A.D. burn</t>
   </si>
   <si>
-    <t>"+" "^" ch13</t>
+    <t>Book club</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Shelt</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Tr (+- Ro)</t>
+  </si>
+  <si>
+    <t>R.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ro </t>
+  </si>
+  <si>
+    <r>
+      <t>book club to Lu/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Tr?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ha 14, </t>
+  </si>
+  <si>
+    <t>&lt;-- Boa ha 14</t>
+  </si>
+  <si>
+    <t>Sab reveal talk</t>
+  </si>
+  <si>
+    <t>"+" "^" ch13 +14 (as in continues into bc past 00:00)</t>
+  </si>
+  <si>
+    <t>Mansherry is alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ace is an anyliser of the SA auction house </t>
+  </si>
+  <si>
+    <t>extra facts:</t>
+  </si>
+  <si>
+    <t>io 13</t>
+  </si>
+  <si>
+    <t>V 13</t>
+  </si>
+  <si>
+    <t>&lt;Lu BD</t>
+  </si>
+  <si>
+    <t>&lt;N BD</t>
+  </si>
+  <si>
+    <t>&lt;Z BD</t>
+  </si>
+  <si>
+    <t>&lt;U BD</t>
+  </si>
+  <si>
+    <t>&lt;S BD</t>
+  </si>
+  <si>
+    <t>&lt;Ch BD</t>
+  </si>
+  <si>
+    <t>&lt;R BD</t>
+  </si>
+  <si>
+    <t>&lt;F BD</t>
+  </si>
+  <si>
+    <t>&lt;Br BD</t>
+  </si>
+  <si>
+    <t>&lt;J BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Vi BD </t>
+  </si>
+  <si>
+    <t>&lt;Ka BD</t>
+  </si>
+  <si>
+    <t>&lt;Ut BD</t>
+  </si>
+  <si>
+    <t>&lt;Kui BD</t>
+  </si>
+  <si>
+    <t>&lt;L BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch15, 16, </t>
+  </si>
+  <si>
+    <t>ha 9(to sa), V 16</t>
+  </si>
+  <si>
+    <t>Camie (Jane Doe, patient 351)</t>
+  </si>
+  <si>
+    <t>ha 13 + 16</t>
+  </si>
+  <si>
+    <t>io 12, V 17</t>
+  </si>
+  <si>
+    <t>hw 5, V 11(12)</t>
+  </si>
+  <si>
+    <t>hw 10, 16</t>
+  </si>
+  <si>
+    <t>storage for fujitora</t>
+  </si>
+  <si>
+    <t>io 16</t>
+  </si>
+  <si>
+    <t>io 11, hw 18</t>
+  </si>
+  <si>
+    <t>io 8, V 18</t>
+  </si>
+  <si>
+    <t>V 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gg 204 N </t>
+  </si>
+  <si>
+    <t>ch18 Diam SoD</t>
+  </si>
+  <si>
+    <t>Monet</t>
+  </si>
+  <si>
+    <t>io 18</t>
+  </si>
+  <si>
+    <t>they know his name</t>
+  </si>
+  <si>
+    <t>(ch18)</t>
+  </si>
+  <si>
+    <t>Sabo knows Z &amp; S</t>
+  </si>
+  <si>
+    <t>ch20(21)</t>
+  </si>
+  <si>
+    <t>ha 16, hw? 22</t>
+  </si>
+  <si>
+    <t>&lt;-- boa was supposed to lawyer for Lu and revol army coming in clutch for Law but yk</t>
+  </si>
+  <si>
+    <t>io 16(brailleic), ha 22</t>
+  </si>
+  <si>
+    <t>&lt;-- would prob khs after doffy dies</t>
+  </si>
+  <si>
+    <t>io 15, V 22</t>
+  </si>
+  <si>
+    <t>&lt;-- was gonna make a cat and mouse thing w doffy and law to add tention and stretch into like 10 more chaps butttt</t>
+  </si>
+  <si>
+    <t>Doffy (ch22)</t>
+  </si>
+  <si>
+    <t>gg 205 U</t>
+  </si>
+  <si>
+    <t>gg 205 N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,8 +701,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,12 +785,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFD5E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC5DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -695,12 +918,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -738,11 +1019,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -757,8 +1049,8 @@
     <mruColors>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFF9999"/>
+      <color rgb="FFFFC5DB"/>
       <color rgb="FFFFD5E6"/>
-      <color rgb="FFFFC5DB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1095,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB94EDC1-D485-4F2E-AB3B-D5F4B9E8E1F4}">
   <dimension ref="A1:AR192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1118,6 +1410,9 @@
         <v>73506</v>
       </c>
       <c r="K1" s="3"/>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
       <c r="M1" s="2">
         <v>37012</v>
       </c>
@@ -1126,10 +1421,12 @@
         <v>37043</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="S1" s="2">
+      <c r="S1" s="12">
         <v>37073</v>
       </c>
-      <c r="T1" s="3"/>
+      <c r="T1" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="V1" s="2">
         <v>37104</v>
       </c>
@@ -1142,6 +1439,9 @@
         <v>37165</v>
       </c>
       <c r="AC1" s="3"/>
+      <c r="AD1" t="s">
+        <v>117</v>
+      </c>
       <c r="AE1" s="2">
         <v>37196</v>
       </c>
@@ -1150,16 +1450,16 @@
         <v>37226</v>
       </c>
       <c r="AI1" s="11"/>
-      <c r="AK1" s="40" t="s">
+      <c r="AK1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
@@ -1170,14 +1470,23 @@
         <v>37288</v>
       </c>
       <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
       <c r="G2" s="4">
         <v>37316</v>
       </c>
       <c r="H2" s="5"/>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
       <c r="J2" s="4">
         <v>73871</v>
       </c>
       <c r="K2" s="5"/>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
       <c r="M2" s="4">
         <v>37377</v>
       </c>
@@ -1186,10 +1495,12 @@
         <v>37408</v>
       </c>
       <c r="Q2" s="7"/>
-      <c r="S2" s="4">
+      <c r="S2" s="49">
         <v>37438</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="50" t="s">
+        <v>133</v>
+      </c>
       <c r="V2" s="4">
         <v>37469</v>
       </c>
@@ -1210,14 +1521,14 @@
         <v>37591</v>
       </c>
       <c r="AI2" s="3"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
@@ -1236,20 +1547,28 @@
         <v>74236</v>
       </c>
       <c r="K3" s="5"/>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
       <c r="M3" s="4">
         <v>37742</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="P3" s="2">
+      <c r="P3" s="12">
         <v>37773</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S3" s="4">
         <v>37803</v>
       </c>
-      <c r="T3" s="5"/>
+      <c r="T3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" t="s">
+        <v>106</v>
+      </c>
       <c r="V3" s="4">
         <v>37834</v>
       </c>
@@ -1270,14 +1589,14 @@
         <v>37956</v>
       </c>
       <c r="AI3" s="5"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
@@ -1328,14 +1647,14 @@
         <v>38322</v>
       </c>
       <c r="AI4" s="5"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
@@ -1360,6 +1679,9 @@
       <c r="N5" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="O5" t="s">
+        <v>105</v>
+      </c>
       <c r="P5" s="4">
         <v>38504</v>
       </c>
@@ -1388,14 +1710,14 @@
         <v>38687</v>
       </c>
       <c r="AI5" s="5"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
@@ -1438,6 +1760,9 @@
         <v>38991</v>
       </c>
       <c r="AC6" s="7"/>
+      <c r="AD6" t="s">
+        <v>119</v>
+      </c>
       <c r="AE6" s="4">
         <v>39022</v>
       </c>
@@ -1446,14 +1771,14 @@
         <v>39052</v>
       </c>
       <c r="AI6" s="5"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
@@ -1504,14 +1829,14 @@
         <v>39417</v>
       </c>
       <c r="AI7" s="5"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
@@ -1540,10 +1865,12 @@
       <c r="Q8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="12">
         <v>39630</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="V8" s="4">
         <v>39661</v>
       </c>
@@ -1564,14 +1891,14 @@
         <v>39783</v>
       </c>
       <c r="AI8" s="7"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
@@ -1586,6 +1913,9 @@
         <v>39873</v>
       </c>
       <c r="H9" s="5"/>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
       <c r="J9" s="4">
         <v>76428</v>
       </c>
@@ -1622,14 +1952,14 @@
         <v>40148</v>
       </c>
       <c r="AI9" s="3"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
@@ -1682,14 +2012,14 @@
         <v>40513</v>
       </c>
       <c r="AI10" s="5"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
@@ -1736,18 +2066,21 @@
         <v>40848</v>
       </c>
       <c r="AF11" s="3"/>
+      <c r="AG11" t="s">
+        <v>107</v>
+      </c>
       <c r="AH11" s="4">
         <v>40878</v>
       </c>
       <c r="AI11" s="5"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="40"/>
-      <c r="AP11" s="40"/>
-      <c r="AQ11" s="40"/>
-      <c r="AR11" s="40"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
@@ -1800,14 +2133,14 @@
         <v>41244</v>
       </c>
       <c r="AI12" s="5"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
@@ -1860,14 +2193,14 @@
         <v>41609</v>
       </c>
       <c r="AI13" s="5"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
@@ -1894,10 +2227,12 @@
         <v>41791</v>
       </c>
       <c r="Q14" s="5"/>
-      <c r="S14" s="6">
+      <c r="S14" s="8">
         <v>41821</v>
       </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="V14" s="4">
         <v>41852</v>
       </c>
@@ -1918,14 +2253,14 @@
         <v>41974</v>
       </c>
       <c r="AI14" s="5"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
@@ -1954,12 +2289,14 @@
         <v>42156</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="2">
+        <v>75</v>
+      </c>
+      <c r="S15" s="12">
         <v>42186</v>
       </c>
-      <c r="T15" s="3"/>
+      <c r="T15" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="V15" s="4">
         <v>42217</v>
       </c>
@@ -1980,14 +2317,14 @@
         <v>42339</v>
       </c>
       <c r="AI15" s="7"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
@@ -2040,21 +2377,21 @@
         <v>42705</v>
       </c>
       <c r="AI16" s="3"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>42736</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="D17" s="4">
+      <c r="D17" s="16">
         <v>42767</v>
       </c>
       <c r="E17" s="5"/>
@@ -2072,14 +2409,14 @@
       <c r="N17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="12">
         <v>42887</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="S17" s="4">
         <v>42917</v>
@@ -2093,6 +2430,9 @@
         <v>42979</v>
       </c>
       <c r="Z17" s="5"/>
+      <c r="AA17" t="s">
+        <v>118</v>
+      </c>
       <c r="AB17" s="4">
         <v>43009</v>
       </c>
@@ -2105,14 +2445,14 @@
         <v>43070</v>
       </c>
       <c r="AI17" s="5"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="40"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
@@ -2141,7 +2481,7 @@
         <v>43252</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="S18" s="4">
         <v>43282</v>
@@ -2167,14 +2507,14 @@
         <v>43435</v>
       </c>
       <c r="AI18" s="5"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
@@ -2227,14 +2567,14 @@
         <v>43800</v>
       </c>
       <c r="AI19" s="5"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
@@ -2287,14 +2627,14 @@
         <v>44166</v>
       </c>
       <c r="AI20" s="5"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
@@ -2347,14 +2687,14 @@
         <v>44531</v>
       </c>
       <c r="AI21" s="5"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
@@ -2405,14 +2745,14 @@
         <v>44896</v>
       </c>
       <c r="AI22" s="7"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
@@ -2463,14 +2803,14 @@
         <v>45261</v>
       </c>
       <c r="AI23" s="3"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40"/>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="40"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
@@ -2493,10 +2833,12 @@
         <v>45413</v>
       </c>
       <c r="N24" s="5"/>
-      <c r="P24" s="2">
+      <c r="P24" s="12">
         <v>45444</v>
       </c>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="S24" s="4">
         <v>45474</v>
       </c>
@@ -2505,6 +2847,9 @@
         <v>45505</v>
       </c>
       <c r="W24" s="5"/>
+      <c r="X24" t="s">
+        <v>116</v>
+      </c>
       <c r="Y24" s="4">
         <v>45536</v>
       </c>
@@ -2521,14 +2866,17 @@
         <v>45627</v>
       </c>
       <c r="AI24" s="5"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="40"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="40"/>
+      <c r="AJ24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
@@ -2579,14 +2927,14 @@
         <v>45992</v>
       </c>
       <c r="AI25" s="5"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-      <c r="AO25" s="40"/>
-      <c r="AP25" s="40"/>
-      <c r="AQ25" s="40"/>
-      <c r="AR25" s="40"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
@@ -2639,14 +2987,14 @@
         <v>46357</v>
       </c>
       <c r="AI26" s="5"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
@@ -2669,7 +3017,7 @@
         <v>46508</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P27" s="4">
         <v>46539</v>
@@ -2699,14 +3047,14 @@
         <v>46722</v>
       </c>
       <c r="AI27" s="5"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6">
@@ -2717,6 +3065,9 @@
         <v>46784</v>
       </c>
       <c r="E28" s="5"/>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
       <c r="G28" s="4">
         <v>46813</v>
       </c>
@@ -2757,14 +3108,14 @@
         <v>47088</v>
       </c>
       <c r="AI28" s="5"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="40"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
@@ -2892,15 +3243,21 @@
       </c>
       <c r="AI31" s="5"/>
     </row>
-    <row r="33" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="P33" s="21" t="s">
         <v>16</v>
       </c>
       <c r="S33" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="X33" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA33" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -2919,8 +3276,26 @@
       <c r="V34" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="X34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y34" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="AA34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB34" s="42">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L35" s="20" t="s">
         <v>8</v>
       </c>
@@ -2943,8 +3318,24 @@
       <c r="V35" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="X35" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y35" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="AA35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB35" s="23"/>
+      <c r="AC35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L36" s="18" t="s">
         <v>4</v>
       </c>
@@ -2970,8 +3361,18 @@
       <c r="V36" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB36" s="17"/>
+      <c r="AC36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L37" s="19" t="s">
         <v>34</v>
       </c>
@@ -2997,8 +3398,18 @@
       <c r="V37" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB37" s="23"/>
+      <c r="AC37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
@@ -3017,8 +3428,20 @@
       <c r="V38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB38" s="42">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="P39" s="23" t="s">
         <v>14</v>
       </c>
@@ -3037,8 +3460,18 @@
       <c r="V39" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA39" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB39" s="23"/>
+      <c r="AC39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="P40" s="17" t="s">
         <v>15</v>
       </c>
@@ -3054,8 +3487,18 @@
       <c r="V40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA40" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB40" s="17"/>
+      <c r="AC40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L41" s="26" t="s">
         <v>32</v>
       </c>
@@ -3069,7 +3512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L42" t="s">
         <v>22</v>
       </c>
@@ -3077,7 +3520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L43" t="s">
         <v>24</v>
       </c>
@@ -3085,103 +3528,125 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="12:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="12:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="L49" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="11:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="51" spans="11:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L51" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O51" s="31" t="s">
+      <c r="O51" s="48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="S51" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="K52" t="s">
         <v>62</v>
       </c>
       <c r="L52" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="47" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="R52" t="s">
+        <v>104</v>
+      </c>
+      <c r="S52" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="K53" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="L53" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O53" s="32" t="s">
+      <c r="O53" s="43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="R53" t="s">
+        <v>103</v>
+      </c>
+      <c r="S53" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="K54" t="s">
-        <v>76</v>
-      </c>
-      <c r="L54" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="L54" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="O54" s="33" t="s">
+      <c r="O54" s="44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="R54" t="s">
+        <v>123</v>
+      </c>
+      <c r="S54" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="K55" t="s">
         <v>65</v>
       </c>
       <c r="L55" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="O55" s="34" t="s">
+      <c r="O55" s="45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="11:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K56" t="s">
+        <v>121</v>
+      </c>
+      <c r="L56" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="O56" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="K57" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L56" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="O56" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="11:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="K57" s="39">
-        <v>10</v>
-      </c>
-      <c r="L57" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="K58" t="s">
         <v>66</v>
       </c>
@@ -3189,35 +3654,104 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="L59" t="s">
+    <row r="59" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="K59" t="s">
+        <v>140</v>
+      </c>
+      <c r="L59" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="11:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="L60" t="s">
+    <row r="60" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="K60" t="s">
+        <v>131</v>
+      </c>
+      <c r="L60" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="K61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L61" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="11:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="L62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="11:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P61" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="K62" t="s">
+        <v>96</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="11:19" x14ac:dyDescent="0.55000000000000004">
       <c r="K63" t="s">
-        <v>84</v>
-      </c>
-      <c r="L63" s="37" t="s">
-        <v>83</v>
+        <v>129</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="K64" t="s">
+        <v>144</v>
+      </c>
+      <c r="L64" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="11:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="K65" t="s">
+        <v>124</v>
+      </c>
+      <c r="L65" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="11:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="K66" t="s">
+        <v>142</v>
+      </c>
+      <c r="L66" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="11:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="K67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L67" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="11:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="K68" t="s">
+        <v>135</v>
+      </c>
+      <c r="L68" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="P68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="11:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="K69" t="s">
+        <v>137</v>
+      </c>
+      <c r="L69" t="s">
+        <v>136</v>
+      </c>
+      <c r="P69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
